--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Ellipse_PS/2.7.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Ellipse_PS/2.7.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclemente\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit-my.sharepoint.com/personal/antonello_naccarato_eng_it/Documents/Sanita/Prodotti/Bridge/CR/BTU-111703 - adeguamento ad FSE 2.0/Test/20230306/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C1BE210-EF7F-4D01-8879-4722001918C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{5C1BE210-EF7F-4D01-8879-4722001918C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E50B536-5D1A-451C-920B-0B84F051C482}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -73,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="425">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -744,9 +741,6 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
   </si>
   <si>
-    <t>2023-03-07T19:02:25Z</t>
-  </si>
-  <si>
     <t>1e747d40e3990824</t>
   </si>
   <si>
@@ -1767,6 +1761,9 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>2023-03-08T14:33:56Z</t>
   </si>
 </sst>
 </file>
@@ -3925,11 +3922,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F133" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="M134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S134" sqref="S134"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,7 +4491,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>11</v>
       </c>
@@ -4528,7 +4525,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>12</v>
       </c>
@@ -4562,7 +4559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>13</v>
       </c>
@@ -4596,7 +4593,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>14</v>
       </c>
@@ -4902,7 +4899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <v>24</v>
       </c>
@@ -4948,7 +4945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>25</v>
       </c>
@@ -4994,7 +4991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
         <v>26</v>
       </c>
@@ -5040,7 +5037,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <v>27</v>
       </c>
@@ -5256,7 +5253,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <v>35</v>
       </c>
@@ -5482,7 +5479,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="31">
         <v>43</v>
       </c>
@@ -5499,13 +5496,13 @@
         <v>133</v>
       </c>
       <c r="F46" s="34">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="G46" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="H46" s="53" t="s">
         <v>139</v>
-      </c>
-      <c r="H46" s="53" t="s">
-        <v>140</v>
       </c>
       <c r="I46" s="35" t="s">
         <v>127</v>
@@ -5549,10 +5546,10 @@
         <v>44</v>
       </c>
       <c r="D47" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="33" t="s">
         <v>141</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>142</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="35"/>
@@ -5585,10 +5582,10 @@
         <v>56</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="35"/>
@@ -5621,10 +5618,10 @@
         <v>65</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
@@ -5657,10 +5654,10 @@
         <v>74</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="35"/>
@@ -5693,10 +5690,10 @@
         <v>83</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="35"/>
@@ -5718,7 +5715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="31">
         <v>51</v>
       </c>
@@ -5729,10 +5726,10 @@
         <v>92</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="35"/>
@@ -5747,7 +5744,7 @@
       <c r="N52" s="36"/>
       <c r="O52" s="36"/>
       <c r="P52" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q52" s="36"/>
       <c r="R52" s="39" t="s">
@@ -5769,10 +5766,10 @@
         <v>44</v>
       </c>
       <c r="D53" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>150</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="35"/>
@@ -5803,10 +5800,10 @@
         <v>44</v>
       </c>
       <c r="D54" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="33" t="s">
         <v>151</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>152</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="35"/>
@@ -5837,10 +5834,10 @@
         <v>44</v>
       </c>
       <c r="D55" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="33" t="s">
         <v>153</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>154</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="35"/>
@@ -5871,10 +5868,10 @@
         <v>44</v>
       </c>
       <c r="D56" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="33" t="s">
         <v>155</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>156</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="35"/>
@@ -5905,10 +5902,10 @@
         <v>44</v>
       </c>
       <c r="D57" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>157</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>158</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="35"/>
@@ -5939,10 +5936,10 @@
         <v>44</v>
       </c>
       <c r="D58" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>159</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>160</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="35"/>
@@ -5973,10 +5970,10 @@
         <v>44</v>
       </c>
       <c r="D59" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="33" t="s">
         <v>161</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>162</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="35"/>
@@ -6007,10 +6004,10 @@
         <v>44</v>
       </c>
       <c r="D60" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="33" t="s">
         <v>163</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>164</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="35"/>
@@ -6041,10 +6038,10 @@
         <v>44</v>
       </c>
       <c r="D61" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="33" t="s">
         <v>165</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>166</v>
       </c>
       <c r="F61" s="34"/>
       <c r="G61" s="35"/>
@@ -6075,10 +6072,10 @@
         <v>44</v>
       </c>
       <c r="D62" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" s="33" t="s">
         <v>167</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>168</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="35"/>
@@ -6109,10 +6106,10 @@
         <v>44</v>
       </c>
       <c r="D63" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="33" t="s">
         <v>169</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>170</v>
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="35"/>
@@ -6143,10 +6140,10 @@
         <v>56</v>
       </c>
       <c r="D64" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="33" t="s">
         <v>171</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>172</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -6177,10 +6174,10 @@
         <v>56</v>
       </c>
       <c r="D65" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" s="33" t="s">
         <v>173</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>174</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="35"/>
@@ -6211,10 +6208,10 @@
         <v>56</v>
       </c>
       <c r="D66" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="33" t="s">
         <v>175</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>176</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="35"/>
@@ -6245,10 +6242,10 @@
         <v>56</v>
       </c>
       <c r="D67" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="33" t="s">
         <v>177</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>178</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="35"/>
@@ -6279,10 +6276,10 @@
         <v>56</v>
       </c>
       <c r="D68" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="33" t="s">
         <v>179</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>180</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="35"/>
@@ -6313,10 +6310,10 @@
         <v>56</v>
       </c>
       <c r="D69" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="33" t="s">
         <v>181</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>182</v>
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="35"/>
@@ -6347,10 +6344,10 @@
         <v>56</v>
       </c>
       <c r="D70" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="33" t="s">
         <v>183</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>184</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="35"/>
@@ -6381,10 +6378,10 @@
         <v>56</v>
       </c>
       <c r="D71" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="33" t="s">
         <v>185</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>186</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="35"/>
@@ -6415,10 +6412,10 @@
         <v>56</v>
       </c>
       <c r="D72" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="33" t="s">
         <v>187</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>188</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="35"/>
@@ -6449,10 +6446,10 @@
         <v>56</v>
       </c>
       <c r="D73" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="33" t="s">
         <v>189</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>190</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="35"/>
@@ -6483,10 +6480,10 @@
         <v>56</v>
       </c>
       <c r="D74" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="33" t="s">
         <v>191</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>192</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="35"/>
@@ -6517,10 +6514,10 @@
         <v>56</v>
       </c>
       <c r="D75" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="33" t="s">
         <v>193</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>194</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="35"/>
@@ -6551,10 +6548,10 @@
         <v>65</v>
       </c>
       <c r="D76" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="33" t="s">
         <v>195</v>
-      </c>
-      <c r="E76" s="33" t="s">
-        <v>196</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="35"/>
@@ -6585,10 +6582,10 @@
         <v>65</v>
       </c>
       <c r="D77" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" s="33" t="s">
         <v>197</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>198</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="35"/>
@@ -6619,10 +6616,10 @@
         <v>65</v>
       </c>
       <c r="D78" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="E78" s="33" t="s">
         <v>199</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>200</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="35"/>
@@ -6653,10 +6650,10 @@
         <v>65</v>
       </c>
       <c r="D79" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="E79" s="33" t="s">
         <v>201</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>202</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="35"/>
@@ -6687,10 +6684,10 @@
         <v>65</v>
       </c>
       <c r="D80" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" s="33" t="s">
         <v>203</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>204</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="35"/>
@@ -6721,10 +6718,10 @@
         <v>65</v>
       </c>
       <c r="D81" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="33" t="s">
         <v>205</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>206</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="35"/>
@@ -6755,10 +6752,10 @@
         <v>65</v>
       </c>
       <c r="D82" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" s="33" t="s">
         <v>207</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>208</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="35"/>
@@ -6789,10 +6786,10 @@
         <v>65</v>
       </c>
       <c r="D83" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E83" s="33" t="s">
         <v>209</v>
-      </c>
-      <c r="E83" s="33" t="s">
-        <v>210</v>
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="35"/>
@@ -6823,10 +6820,10 @@
         <v>65</v>
       </c>
       <c r="D84" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E84" s="33" t="s">
         <v>211</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>212</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="35"/>
@@ -6857,10 +6854,10 @@
         <v>65</v>
       </c>
       <c r="D85" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" s="33" t="s">
         <v>213</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="35"/>
@@ -6891,10 +6888,10 @@
         <v>65</v>
       </c>
       <c r="D86" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" s="33" t="s">
         <v>215</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>216</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="35"/>
@@ -6925,10 +6922,10 @@
         <v>65</v>
       </c>
       <c r="D87" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E87" s="33" t="s">
         <v>217</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>218</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="35"/>
@@ -6959,10 +6956,10 @@
         <v>65</v>
       </c>
       <c r="D88" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" s="33" t="s">
         <v>219</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>220</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="35"/>
@@ -6993,10 +6990,10 @@
         <v>65</v>
       </c>
       <c r="D89" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" s="33" t="s">
         <v>221</v>
-      </c>
-      <c r="E89" s="33" t="s">
-        <v>222</v>
       </c>
       <c r="F89" s="34"/>
       <c r="G89" s="35"/>
@@ -7027,10 +7024,10 @@
         <v>65</v>
       </c>
       <c r="D90" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" s="33" t="s">
         <v>223</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>224</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="35"/>
@@ -7061,10 +7058,10 @@
         <v>65</v>
       </c>
       <c r="D91" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="E91" s="33" t="s">
         <v>225</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>226</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="35"/>
@@ -7095,10 +7092,10 @@
         <v>65</v>
       </c>
       <c r="D92" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="E92" s="33" t="s">
         <v>227</v>
-      </c>
-      <c r="E92" s="33" t="s">
-        <v>228</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="35"/>
@@ -7129,10 +7126,10 @@
         <v>65</v>
       </c>
       <c r="D93" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" s="33" t="s">
         <v>229</v>
-      </c>
-      <c r="E93" s="33" t="s">
-        <v>230</v>
       </c>
       <c r="F93" s="34"/>
       <c r="G93" s="35"/>
@@ -7163,10 +7160,10 @@
         <v>65</v>
       </c>
       <c r="D94" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="E94" s="33" t="s">
         <v>231</v>
-      </c>
-      <c r="E94" s="33" t="s">
-        <v>232</v>
       </c>
       <c r="F94" s="34"/>
       <c r="G94" s="35"/>
@@ -7197,10 +7194,10 @@
         <v>74</v>
       </c>
       <c r="D95" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E95" s="33" t="s">
         <v>233</v>
-      </c>
-      <c r="E95" s="33" t="s">
-        <v>234</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="35"/>
@@ -7231,10 +7228,10 @@
         <v>74</v>
       </c>
       <c r="D96" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E96" s="33" t="s">
         <v>235</v>
-      </c>
-      <c r="E96" s="33" t="s">
-        <v>236</v>
       </c>
       <c r="F96" s="34"/>
       <c r="G96" s="35"/>
@@ -7265,10 +7262,10 @@
         <v>74</v>
       </c>
       <c r="D97" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="E97" s="33" t="s">
         <v>237</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>238</v>
       </c>
       <c r="F97" s="34"/>
       <c r="G97" s="35"/>
@@ -7299,10 +7296,10 @@
         <v>74</v>
       </c>
       <c r="D98" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E98" s="33" t="s">
         <v>239</v>
-      </c>
-      <c r="E98" s="33" t="s">
-        <v>240</v>
       </c>
       <c r="F98" s="34"/>
       <c r="G98" s="35"/>
@@ -7333,10 +7330,10 @@
         <v>74</v>
       </c>
       <c r="D99" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="E99" s="33" t="s">
         <v>241</v>
-      </c>
-      <c r="E99" s="33" t="s">
-        <v>242</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="35"/>
@@ -7367,10 +7364,10 @@
         <v>74</v>
       </c>
       <c r="D100" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100" s="33" t="s">
         <v>243</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>244</v>
       </c>
       <c r="F100" s="34"/>
       <c r="G100" s="35"/>
@@ -7401,10 +7398,10 @@
         <v>74</v>
       </c>
       <c r="D101" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E101" s="33" t="s">
         <v>245</v>
-      </c>
-      <c r="E101" s="33" t="s">
-        <v>246</v>
       </c>
       <c r="F101" s="34"/>
       <c r="G101" s="35"/>
@@ -7435,10 +7432,10 @@
         <v>74</v>
       </c>
       <c r="D102" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="E102" s="33" t="s">
         <v>247</v>
-      </c>
-      <c r="E102" s="33" t="s">
-        <v>248</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="35"/>
@@ -7469,10 +7466,10 @@
         <v>74</v>
       </c>
       <c r="D103" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="E103" s="33" t="s">
         <v>249</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>250</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="35"/>
@@ -7503,10 +7500,10 @@
         <v>74</v>
       </c>
       <c r="D104" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="E104" s="33" t="s">
         <v>251</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>252</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="35"/>
@@ -7537,10 +7534,10 @@
         <v>74</v>
       </c>
       <c r="D105" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E105" s="33" t="s">
         <v>253</v>
-      </c>
-      <c r="E105" s="33" t="s">
-        <v>254</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="35"/>
@@ -7571,10 +7568,10 @@
         <v>74</v>
       </c>
       <c r="D106" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="E106" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="E106" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="35"/>
@@ -7605,10 +7602,10 @@
         <v>74</v>
       </c>
       <c r="D107" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E107" s="33" t="s">
         <v>257</v>
-      </c>
-      <c r="E107" s="33" t="s">
-        <v>258</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="35"/>
@@ -7639,10 +7636,10 @@
         <v>83</v>
       </c>
       <c r="D108" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E108" s="33" t="s">
         <v>259</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>260</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="35"/>
@@ -7673,10 +7670,10 @@
         <v>83</v>
       </c>
       <c r="D109" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="E109" s="33" t="s">
         <v>261</v>
-      </c>
-      <c r="E109" s="33" t="s">
-        <v>262</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="35"/>
@@ -7707,10 +7704,10 @@
         <v>83</v>
       </c>
       <c r="D110" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="E110" s="33" t="s">
         <v>263</v>
-      </c>
-      <c r="E110" s="33" t="s">
-        <v>264</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="35"/>
@@ -7741,10 +7738,10 @@
         <v>83</v>
       </c>
       <c r="D111" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E111" s="33" t="s">
         <v>265</v>
-      </c>
-      <c r="E111" s="33" t="s">
-        <v>266</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="35"/>
@@ -7775,10 +7772,10 @@
         <v>83</v>
       </c>
       <c r="D112" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E112" s="33" t="s">
         <v>267</v>
-      </c>
-      <c r="E112" s="33" t="s">
-        <v>268</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="35"/>
@@ -7809,10 +7806,10 @@
         <v>83</v>
       </c>
       <c r="D113" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E113" s="33" t="s">
         <v>269</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>270</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="35"/>
@@ -7843,10 +7840,10 @@
         <v>83</v>
       </c>
       <c r="D114" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="E114" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="E114" s="33" t="s">
-        <v>272</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="35"/>
@@ -7877,10 +7874,10 @@
         <v>83</v>
       </c>
       <c r="D115" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E115" s="33" t="s">
         <v>273</v>
-      </c>
-      <c r="E115" s="33" t="s">
-        <v>274</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="35"/>
@@ -7911,10 +7908,10 @@
         <v>83</v>
       </c>
       <c r="D116" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="E116" s="33" t="s">
         <v>275</v>
-      </c>
-      <c r="E116" s="33" t="s">
-        <v>276</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="35"/>
@@ -7945,10 +7942,10 @@
         <v>83</v>
       </c>
       <c r="D117" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E117" s="33" t="s">
         <v>277</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>278</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="35"/>
@@ -7979,10 +7976,10 @@
         <v>83</v>
       </c>
       <c r="D118" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E118" s="33" t="s">
         <v>279</v>
-      </c>
-      <c r="E118" s="33" t="s">
-        <v>280</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="35"/>
@@ -8013,10 +8010,10 @@
         <v>83</v>
       </c>
       <c r="D119" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E119" s="33" t="s">
         <v>281</v>
-      </c>
-      <c r="E119" s="33" t="s">
-        <v>282</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="35"/>
@@ -8047,10 +8044,10 @@
         <v>83</v>
       </c>
       <c r="D120" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E120" s="33" t="s">
         <v>283</v>
-      </c>
-      <c r="E120" s="33" t="s">
-        <v>284</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="35"/>
@@ -8081,10 +8078,10 @@
         <v>83</v>
       </c>
       <c r="D121" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="E121" s="33" t="s">
         <v>285</v>
-      </c>
-      <c r="E121" s="33" t="s">
-        <v>286</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="35"/>
@@ -8115,10 +8112,10 @@
         <v>83</v>
       </c>
       <c r="D122" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="E122" s="33" t="s">
         <v>287</v>
-      </c>
-      <c r="E122" s="33" t="s">
-        <v>288</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="35"/>
@@ -8149,19 +8146,19 @@
         <v>92</v>
       </c>
       <c r="D123" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E123" s="33" t="s">
         <v>289</v>
-      </c>
-      <c r="E123" s="33" t="s">
-        <v>290</v>
       </c>
       <c r="F123" s="42">
         <v>44956.655914351853</v>
       </c>
       <c r="G123" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="H123" s="43" t="s">
         <v>291</v>
-      </c>
-      <c r="H123" s="43" t="s">
-        <v>292</v>
       </c>
       <c r="I123" s="43" t="s">
         <v>127</v>
@@ -8177,24 +8174,24 @@
         <v>98</v>
       </c>
       <c r="N123" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O123" s="44" t="s">
         <v>98</v>
       </c>
       <c r="P123" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q123" s="44"/>
       <c r="R123" s="39"/>
       <c r="S123" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T123" s="46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="31">
         <v>123</v>
       </c>
@@ -8205,10 +8202,10 @@
         <v>92</v>
       </c>
       <c r="D124" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E124" s="33" t="s">
         <v>296</v>
-      </c>
-      <c r="E124" s="33" t="s">
-        <v>297</v>
       </c>
       <c r="F124" s="42"/>
       <c r="G124" s="43"/>
@@ -8218,7 +8215,7 @@
         <v>128</v>
       </c>
       <c r="K124" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L124" s="44"/>
       <c r="M124" s="44"/>
@@ -8232,7 +8229,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="31">
         <v>124</v>
       </c>
@@ -8243,10 +8240,10 @@
         <v>92</v>
       </c>
       <c r="D125" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E125" s="33" t="s">
         <v>299</v>
-      </c>
-      <c r="E125" s="33" t="s">
-        <v>300</v>
       </c>
       <c r="F125" s="42"/>
       <c r="G125" s="43"/>
@@ -8256,7 +8253,7 @@
         <v>128</v>
       </c>
       <c r="K125" s="48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L125" s="44"/>
       <c r="M125" s="44"/>
@@ -8270,7 +8267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="31">
         <v>125</v>
       </c>
@@ -8281,10 +8278,10 @@
         <v>92</v>
       </c>
       <c r="D126" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E126" s="33" t="s">
         <v>302</v>
-      </c>
-      <c r="E126" s="33" t="s">
-        <v>303</v>
       </c>
       <c r="F126" s="42"/>
       <c r="G126" s="43"/>
@@ -8294,7 +8291,7 @@
         <v>128</v>
       </c>
       <c r="K126" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L126" s="44"/>
       <c r="M126" s="44"/>
@@ -8308,7 +8305,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="31">
         <v>126</v>
       </c>
@@ -8319,10 +8316,10 @@
         <v>92</v>
       </c>
       <c r="D127" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="E127" s="33" t="s">
         <v>305</v>
-      </c>
-      <c r="E127" s="33" t="s">
-        <v>306</v>
       </c>
       <c r="F127" s="42"/>
       <c r="G127" s="43"/>
@@ -8332,7 +8329,7 @@
         <v>128</v>
       </c>
       <c r="K127" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L127" s="44"/>
       <c r="M127" s="44"/>
@@ -8357,22 +8354,22 @@
         <v>92</v>
       </c>
       <c r="D128" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="E128" s="33" t="s">
         <v>308</v>
-      </c>
-      <c r="E128" s="33" t="s">
-        <v>309</v>
       </c>
       <c r="F128" s="42">
         <v>44956.668854166666</v>
       </c>
       <c r="G128" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="H128" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="H128" s="43" t="s">
+      <c r="I128" s="43" t="s">
         <v>311</v>
-      </c>
-      <c r="I128" s="43" t="s">
-        <v>312</v>
       </c>
       <c r="J128" s="44" t="s">
         <v>98</v>
@@ -8385,24 +8382,24 @@
         <v>98</v>
       </c>
       <c r="N128" s="44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O128" s="44" t="s">
         <v>98</v>
       </c>
       <c r="P128" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q128" s="44"/>
       <c r="R128" s="39"/>
       <c r="S128" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T128" s="46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="31">
         <v>128</v>
       </c>
@@ -8413,10 +8410,10 @@
         <v>92</v>
       </c>
       <c r="D129" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="E129" s="33" t="s">
         <v>316</v>
-      </c>
-      <c r="E129" s="33" t="s">
-        <v>317</v>
       </c>
       <c r="F129" s="42"/>
       <c r="G129" s="43"/>
@@ -8426,7 +8423,7 @@
         <v>128</v>
       </c>
       <c r="K129" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L129" s="44"/>
       <c r="M129" s="44"/>
@@ -8440,7 +8437,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="31">
         <v>129</v>
       </c>
@@ -8451,10 +8448,10 @@
         <v>92</v>
       </c>
       <c r="D130" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="E130" s="33" t="s">
         <v>319</v>
-      </c>
-      <c r="E130" s="33" t="s">
-        <v>320</v>
       </c>
       <c r="F130" s="42"/>
       <c r="G130" s="43"/>
@@ -8464,7 +8461,7 @@
         <v>128</v>
       </c>
       <c r="K130" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L130" s="44"/>
       <c r="M130" s="44"/>
@@ -8489,22 +8486,22 @@
         <v>92</v>
       </c>
       <c r="D131" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="E131" s="33" t="s">
         <v>322</v>
-      </c>
-      <c r="E131" s="33" t="s">
-        <v>323</v>
       </c>
       <c r="F131" s="42">
         <v>44957.526666666665</v>
       </c>
       <c r="G131" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="H131" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="H131" s="43" t="s">
+      <c r="I131" s="43" t="s">
         <v>325</v>
-      </c>
-      <c r="I131" s="43" t="s">
-        <v>326</v>
       </c>
       <c r="J131" s="44" t="s">
         <v>98</v>
@@ -8517,18 +8514,18 @@
         <v>98</v>
       </c>
       <c r="N131" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O131" s="44" t="s">
         <v>98</v>
       </c>
       <c r="P131" s="47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q131" s="44"/>
       <c r="R131" s="39"/>
       <c r="S131" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T131" s="46" t="s">
         <v>119</v>
@@ -8545,22 +8542,22 @@
         <v>92</v>
       </c>
       <c r="D132" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="E132" s="33" t="s">
         <v>330</v>
-      </c>
-      <c r="E132" s="33" t="s">
-        <v>331</v>
       </c>
       <c r="F132" s="42">
         <v>44957.549166666664</v>
       </c>
       <c r="G132" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="H132" s="43" t="s">
         <v>332</v>
       </c>
-      <c r="H132" s="43" t="s">
+      <c r="I132" s="43" t="s">
         <v>333</v>
-      </c>
-      <c r="I132" s="43" t="s">
-        <v>334</v>
       </c>
       <c r="J132" s="44" t="s">
         <v>98</v>
@@ -8573,18 +8570,18 @@
         <v>98</v>
       </c>
       <c r="N132" s="44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O132" s="44" t="s">
         <v>98</v>
       </c>
       <c r="P132" s="47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q132" s="44"/>
       <c r="R132" s="39"/>
       <c r="S132" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T132" s="46" t="s">
         <v>119</v>
@@ -8601,22 +8598,22 @@
         <v>92</v>
       </c>
       <c r="D133" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="E133" s="33" t="s">
         <v>337</v>
-      </c>
-      <c r="E133" s="33" t="s">
-        <v>338</v>
       </c>
       <c r="F133" s="42">
         <v>44957.552129629628</v>
       </c>
       <c r="G133" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="H133" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="H133" s="43" t="s">
+      <c r="I133" s="43" t="s">
         <v>340</v>
-      </c>
-      <c r="I133" s="43" t="s">
-        <v>341</v>
       </c>
       <c r="J133" s="44" t="s">
         <v>98</v>
@@ -8629,24 +8626,24 @@
         <v>98</v>
       </c>
       <c r="N133" s="44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O133" s="44" t="s">
         <v>98</v>
       </c>
       <c r="P133" s="47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q133" s="44"/>
       <c r="R133" s="39"/>
       <c r="S133" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T133" s="46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="195.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="31">
         <v>133</v>
       </c>
@@ -8657,22 +8654,22 @@
         <v>92</v>
       </c>
       <c r="D134" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="E134" s="33" t="s">
         <v>344</v>
-      </c>
-      <c r="E134" s="33" t="s">
-        <v>345</v>
       </c>
       <c r="F134" s="42">
         <v>44957.592812499999</v>
       </c>
       <c r="G134" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="H134" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="H134" s="43" t="s">
+      <c r="I134" s="43" t="s">
         <v>347</v>
-      </c>
-      <c r="I134" s="43" t="s">
-        <v>348</v>
       </c>
       <c r="J134" s="44" t="s">
         <v>98</v>
@@ -8685,22 +8682,24 @@
         <v>98</v>
       </c>
       <c r="N134" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="O134" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="P134" s="47" t="s">
         <v>349</v>
-      </c>
-      <c r="O134" s="44"/>
-      <c r="P134" s="47" t="s">
-        <v>350</v>
       </c>
       <c r="Q134" s="44"/>
       <c r="R134" s="39"/>
       <c r="S134" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T134" s="46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="31">
         <v>134</v>
       </c>
@@ -8711,10 +8710,10 @@
         <v>92</v>
       </c>
       <c r="D135" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="E135" s="33" t="s">
         <v>351</v>
-      </c>
-      <c r="E135" s="33" t="s">
-        <v>352</v>
       </c>
       <c r="F135" s="42"/>
       <c r="G135" s="43"/>
@@ -8724,7 +8723,7 @@
         <v>128</v>
       </c>
       <c r="K135" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L135" s="44"/>
       <c r="M135" s="44"/>
@@ -8738,7 +8737,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="31">
         <v>135</v>
       </c>
@@ -8749,10 +8748,10 @@
         <v>92</v>
       </c>
       <c r="D136" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E136" s="33" t="s">
         <v>354</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>355</v>
       </c>
       <c r="F136" s="42"/>
       <c r="G136" s="43"/>
@@ -8762,7 +8761,7 @@
         <v>128</v>
       </c>
       <c r="K136" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L136" s="44"/>
       <c r="M136" s="44"/>
@@ -8776,7 +8775,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="31">
         <v>136</v>
       </c>
@@ -8787,10 +8786,10 @@
         <v>92</v>
       </c>
       <c r="D137" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E137" s="33" t="s">
         <v>357</v>
-      </c>
-      <c r="E137" s="33" t="s">
-        <v>358</v>
       </c>
       <c r="F137" s="42"/>
       <c r="G137" s="43"/>
@@ -8800,7 +8799,7 @@
         <v>128</v>
       </c>
       <c r="K137" s="48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L137" s="44"/>
       <c r="M137" s="44"/>
@@ -8814,7 +8813,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="31">
         <v>137</v>
       </c>
@@ -8825,10 +8824,10 @@
         <v>92</v>
       </c>
       <c r="D138" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="E138" s="33" t="s">
         <v>360</v>
-      </c>
-      <c r="E138" s="33" t="s">
-        <v>361</v>
       </c>
       <c r="F138" s="42"/>
       <c r="G138" s="43"/>
@@ -8838,7 +8837,7 @@
         <v>128</v>
       </c>
       <c r="K138" s="48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L138" s="44"/>
       <c r="M138" s="44"/>
@@ -8852,7 +8851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="31">
         <v>138</v>
       </c>
@@ -8863,10 +8862,10 @@
         <v>92</v>
       </c>
       <c r="D139" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="E139" s="33" t="s">
         <v>363</v>
-      </c>
-      <c r="E139" s="33" t="s">
-        <v>364</v>
       </c>
       <c r="F139" s="42"/>
       <c r="G139" s="43"/>
@@ -8876,7 +8875,7 @@
         <v>128</v>
       </c>
       <c r="K139" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L139" s="44"/>
       <c r="M139" s="44"/>
@@ -8901,22 +8900,22 @@
         <v>92</v>
       </c>
       <c r="D140" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="E140" s="33" t="s">
         <v>366</v>
-      </c>
-      <c r="E140" s="33" t="s">
-        <v>367</v>
       </c>
       <c r="F140" s="42">
         <v>44957.610127314816</v>
       </c>
       <c r="G140" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="H140" s="43" t="s">
         <v>368</v>
       </c>
-      <c r="H140" s="43" t="s">
+      <c r="I140" s="43" t="s">
         <v>369</v>
-      </c>
-      <c r="I140" s="43" t="s">
-        <v>370</v>
       </c>
       <c r="J140" s="44" t="s">
         <v>98</v>
@@ -8929,18 +8928,18 @@
         <v>98</v>
       </c>
       <c r="N140" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O140" s="44" t="s">
         <v>98</v>
       </c>
       <c r="P140" s="47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q140" s="44"/>
       <c r="R140" s="39"/>
       <c r="S140" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T140" s="46" t="s">
         <v>119</v>
@@ -8957,22 +8956,22 @@
         <v>92</v>
       </c>
       <c r="D141" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="E141" s="33" t="s">
         <v>373</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>374</v>
       </c>
       <c r="F141" s="42">
         <v>44957.615231481483</v>
       </c>
       <c r="G141" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="H141" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="H141" s="43" t="s">
+      <c r="I141" s="43" t="s">
         <v>376</v>
-      </c>
-      <c r="I141" s="43" t="s">
-        <v>377</v>
       </c>
       <c r="J141" s="44" t="s">
         <v>98</v>
@@ -8985,24 +8984,24 @@
         <v>98</v>
       </c>
       <c r="N141" s="44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O141" s="44" t="s">
         <v>98</v>
       </c>
       <c r="P141" s="47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q141" s="44"/>
       <c r="R141" s="39"/>
       <c r="S141" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T141" s="46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="31">
         <v>141</v>
       </c>
@@ -9013,10 +9012,10 @@
         <v>92</v>
       </c>
       <c r="D142" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="E142" s="33" t="s">
         <v>380</v>
-      </c>
-      <c r="E142" s="33" t="s">
-        <v>381</v>
       </c>
       <c r="F142" s="42"/>
       <c r="G142" s="43"/>
@@ -9026,7 +9025,7 @@
         <v>128</v>
       </c>
       <c r="K142" s="45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L142" s="44"/>
       <c r="M142" s="44"/>
@@ -9051,22 +9050,22 @@
         <v>92</v>
       </c>
       <c r="D143" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="E143" s="33" t="s">
         <v>383</v>
-      </c>
-      <c r="E143" s="33" t="s">
-        <v>384</v>
       </c>
       <c r="F143" s="42">
         <v>44956.676689814813</v>
       </c>
       <c r="G143" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="H143" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="H143" s="43" t="s">
+      <c r="I143" s="43" t="s">
         <v>386</v>
-      </c>
-      <c r="I143" s="43" t="s">
-        <v>387</v>
       </c>
       <c r="J143" s="44" t="s">
         <v>98</v>
@@ -9079,18 +9078,18 @@
         <v>98</v>
       </c>
       <c r="N143" s="44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O143" s="44" t="s">
         <v>98</v>
       </c>
       <c r="P143" s="47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q143" s="44"/>
       <c r="R143" s="39"/>
       <c r="S143" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T143" s="46" t="s">
         <v>119</v>
@@ -9107,22 +9106,22 @@
         <v>92</v>
       </c>
       <c r="D144" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="E144" s="33" t="s">
         <v>390</v>
-      </c>
-      <c r="E144" s="33" t="s">
-        <v>391</v>
       </c>
       <c r="F144" s="42">
         <v>44956.68173611111</v>
       </c>
       <c r="G144" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H144" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="H144" s="43" t="s">
+      <c r="I144" s="43" t="s">
         <v>393</v>
-      </c>
-      <c r="I144" s="43" t="s">
-        <v>394</v>
       </c>
       <c r="J144" s="44" t="s">
         <v>98</v>
@@ -9135,24 +9134,24 @@
         <v>98</v>
       </c>
       <c r="N144" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O144" s="44" t="s">
         <v>98</v>
       </c>
       <c r="P144" s="47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q144" s="44"/>
       <c r="R144" s="39"/>
       <c r="S144" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T144" s="46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="31">
         <v>144</v>
       </c>
@@ -9163,22 +9162,22 @@
         <v>92</v>
       </c>
       <c r="D145" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="E145" s="33" t="s">
         <v>397</v>
-      </c>
-      <c r="E145" s="33" t="s">
-        <v>398</v>
       </c>
       <c r="F145" s="42">
         <v>44956.689270833333</v>
       </c>
       <c r="G145" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="H145" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="H145" s="43" t="s">
+      <c r="I145" s="43" t="s">
         <v>400</v>
-      </c>
-      <c r="I145" s="43" t="s">
-        <v>401</v>
       </c>
       <c r="J145" s="44" t="s">
         <v>98</v>
@@ -9191,24 +9190,24 @@
         <v>98</v>
       </c>
       <c r="N145" s="44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O145" s="44" t="s">
         <v>98</v>
       </c>
       <c r="P145" s="47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q145" s="44"/>
       <c r="R145" s="39"/>
       <c r="S145" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T145" s="46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="31">
         <v>145</v>
       </c>
@@ -9219,10 +9218,10 @@
         <v>92</v>
       </c>
       <c r="D146" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="E146" s="33" t="s">
         <v>404</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>405</v>
       </c>
       <c r="F146" s="42"/>
       <c r="G146" s="43"/>
@@ -9232,7 +9231,7 @@
         <v>128</v>
       </c>
       <c r="K146" s="49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L146" s="44"/>
       <c r="M146" s="44"/>
@@ -9246,7 +9245,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A147" s="31">
         <v>146</v>
       </c>
@@ -9257,10 +9256,10 @@
         <v>92</v>
       </c>
       <c r="D147" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="E147" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="E147" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="F147" s="42"/>
       <c r="G147" s="43"/>
@@ -9270,7 +9269,7 @@
         <v>128</v>
       </c>
       <c r="K147" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L147" s="44"/>
       <c r="M147" s="44"/>
@@ -23654,11 +23653,6 @@
     <filterColumn colId="2">
       <filters>
         <filter val="VPS"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="SI"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -23724,10 +23718,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>408</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23735,13 +23729,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>411</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23749,13 +23743,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>413</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23763,13 +23757,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>415</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23777,13 +23771,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>417</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23791,13 +23785,13 @@
         <v>83</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>419</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23805,13 +23799,13 @@
         <v>92</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>421</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24834,7 +24828,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>98</v>
@@ -24842,7 +24836,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>128</v>
@@ -25859,6 +25853,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004DE490683678E84AABC70C83AF04A849" ma:contentTypeVersion="5" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="d87ba405330fe1fd4ebca86e6510eeed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b66a4e9-493a-4f5b-bd90-2639920d41ca" xmlns:ns3="581feeb0-3f31-43f8-b205-816acbb15e2f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a33c0baab722015f1fb37e23302defe" ns2:_="" ns3:_="">
     <xsd:import namespace="6b66a4e9-493a-4f5b-bd90-2639920d41ca"/>
@@ -26029,23 +26038,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9295878B-4B37-4ECF-9C60-3BEAAABCFC5D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26057,14 +26058,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD964D2-2703-4697-A7AA-1232AB3EB4A9}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Ellipse_PS/2.7.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Ellipse_PS/2.7.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit-my.sharepoint.com/personal/cristiano_avella_eng_it/Documents/Documenti/GitHub/it-fse-accreditamento/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Ellipse_PS/2.7.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{5C1BE210-EF7F-4D01-8879-4722001918C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E50B536-5D1A-451C-920B-0B84F051C482}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{5C1BE210-EF7F-4D01-8879-4722001918C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{757EA181-9D65-4FE1-8CAF-769AC19D4A20}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="422">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -500,23 +500,7 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-02-16T17:49:54Z</t>
-  </si>
-  <si>
-    <t>6679cb3b80a8e139</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.1.c276385fb37d2c11d4b85b22d01fdf6f4ec2c1562f33569f8acacc2a8955274f.cfc8d14893^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>Nel test sono state popolate tutte le sezioni obbligatorie :
-- Modalità di trasporto
-- Motivo della visita
-- Triage
-- Dimissione</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT2</t>
@@ -527,22 +511,6 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-02-16T17:56:15Z</t>
-  </si>
-  <si>
-    <t>559f21087e22bd9c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.1.d25c5acf3d4aff4a7d7733a8e7a4da60c4639db3693bef21bde6ce2920fbbb19.4214fb1f2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nel test sono state popolate tutte le sezioni obbligatorie e per quanto riguarda le facoltative sono presenti:
-- Inquadramento clinico iniziale
-- Decorso ospedaliero
-- Accertamenti
-</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT3</t>
   </si>
   <si>
@@ -551,41 +519,12 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-02-16T18:01:56Z</t>
-  </si>
-  <si>
-    <t>6f0a37f9a9257554</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.1.469d0a84d4050dbc4d7f8839303fe3ed5b4019f20022f9e4c2d90a35713afa8c.f974d7a000^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT4</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-02-16T18:08:57Z</t>
-  </si>
-  <si>
-    <t>920f2056f3ffe123</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.1.6a57a514dbb7287c8d32f537626d71863b0584390efc2ae555c28cf531d82928.3ad62c50f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Nel test sono state popolate tutte le sezioni obbligatorie :
-- Modalità di trasporto
-- Motivo della visita
-- Triage
-- Dimissioni
-e le sezioni facoltative di dati che il sistema ellipse è in grado di gestire:
-- Inquadramento clinico iniziale
-- Decorso ospedaliero
-- Accertamenti</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -1764,6 +1703,42 @@
   </si>
   <si>
     <t>2023-03-08T14:33:56Z</t>
+  </si>
+  <si>
+    <t>debab80fbaba5990</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.1.554bc96737cb087a135c9b0770580e1440c992adea27f8cffaf148bb208b11cb.8d4d4878d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-23T17:50:38Z</t>
+  </si>
+  <si>
+    <t>ebe5c6e770293625</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.1.0bd90d34f14c0eccff8f33c33ae223db4edf4644f0917873e751aae1854b2e18.64d443f5ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-23T17:58:25Z</t>
+  </si>
+  <si>
+    <t>869269a591fea43b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.1.822a6be25dec3144fe15048ced700c2ee3c2b87fdd9387fd4dcaffe71818f811.480a0ee8d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-24T12:48:55Z</t>
+  </si>
+  <si>
+    <t>4d4d0d5929d4a7f3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.1.41f0ccb2b77166e5edbb1c49bddcdb15e018a0a6490c6dbcbfd9295c9970b44e.bda781f0f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-24T15:53:57Z</t>
   </si>
 </sst>
 </file>
@@ -2442,14 +2417,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2460,19 +2435,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3923,10 +3898,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="M134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3946,7 +3921,7 @@
     <col min="13" max="13" width="24.88671875" style="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="40.88671875" style="22" customWidth="1"/>
     <col min="15" max="15" width="29.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.21875" style="22" customWidth="1"/>
     <col min="17" max="17" width="11.5546875" style="22" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="30.5546875" style="22" customWidth="1"/>
@@ -4916,19 +4891,19 @@
         <v>94</v>
       </c>
       <c r="F31" s="42">
-        <v>44973.742986111109</v>
+        <v>45008.743495370371</v>
       </c>
       <c r="G31" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="I31" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="J31" s="44" t="s">
         <v>95</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31" s="44" t="s">
-        <v>98</v>
       </c>
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
@@ -4938,9 +4913,7 @@
       <c r="P31" s="44"/>
       <c r="Q31" s="44"/>
       <c r="R31" s="39"/>
-      <c r="S31" s="45" t="s">
-        <v>99</v>
-      </c>
+      <c r="S31" s="45"/>
       <c r="T31" s="46" t="s">
         <v>47</v>
       </c>
@@ -4956,25 +4929,25 @@
         <v>92</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F32" s="42">
-        <v>44973.747395833336</v>
+        <v>45008.748900462961</v>
       </c>
       <c r="G32" s="43" t="s">
-        <v>102</v>
+        <v>415</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>103</v>
+        <v>413</v>
       </c>
       <c r="I32" s="43" t="s">
-        <v>104</v>
+        <v>414</v>
       </c>
       <c r="J32" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K32" s="44"/>
       <c r="L32" s="44"/>
@@ -4984,9 +4957,7 @@
       <c r="P32" s="44"/>
       <c r="Q32" s="44"/>
       <c r="R32" s="39"/>
-      <c r="S32" s="45" t="s">
-        <v>105</v>
-      </c>
+      <c r="S32" s="45"/>
       <c r="T32" s="46" t="s">
         <v>47</v>
       </c>
@@ -5002,25 +4973,25 @@
         <v>92</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F33" s="42">
-        <v>44973.751342592594</v>
+        <v>45009.53396990741</v>
       </c>
       <c r="G33" s="43" t="s">
-        <v>108</v>
+        <v>418</v>
       </c>
       <c r="H33" s="43" t="s">
-        <v>109</v>
+        <v>416</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>110</v>
+        <v>417</v>
       </c>
       <c r="J33" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
@@ -5030,14 +5001,12 @@
       <c r="P33" s="44"/>
       <c r="Q33" s="44"/>
       <c r="R33" s="39"/>
-      <c r="S33" s="45" t="s">
-        <v>105</v>
-      </c>
+      <c r="S33" s="45"/>
       <c r="T33" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31">
         <v>27</v>
       </c>
@@ -5048,25 +5017,25 @@
         <v>92</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F34" s="42">
-        <v>44973.756215277775</v>
+        <v>45009.662465277775</v>
       </c>
       <c r="G34" s="43" t="s">
-        <v>113</v>
+        <v>421</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>114</v>
+        <v>419</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>115</v>
+        <v>420</v>
       </c>
       <c r="J34" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K34" s="44"/>
       <c r="L34" s="44"/>
@@ -5076,9 +5045,7 @@
       <c r="P34" s="44"/>
       <c r="Q34" s="44"/>
       <c r="R34" s="39"/>
-      <c r="S34" s="45" t="s">
-        <v>116</v>
-      </c>
+      <c r="S34" s="45"/>
       <c r="T34" s="46" t="s">
         <v>47</v>
       </c>
@@ -5094,10 +5061,10 @@
         <v>44</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="35"/>
@@ -5114,7 +5081,7 @@
       <c r="R35" s="39"/>
       <c r="S35" s="37"/>
       <c r="T35" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5128,10 +5095,10 @@
         <v>56</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="35"/>
@@ -5148,7 +5115,7 @@
       <c r="R36" s="39"/>
       <c r="S36" s="37"/>
       <c r="T36" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5162,10 +5129,10 @@
         <v>65</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="35"/>
@@ -5182,7 +5149,7 @@
       <c r="R37" s="39"/>
       <c r="S37" s="37"/>
       <c r="T37" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5196,10 +5163,10 @@
         <v>74</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="35"/>
@@ -5216,7 +5183,7 @@
       <c r="R38" s="39"/>
       <c r="S38" s="37"/>
       <c r="T38" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5230,10 +5197,10 @@
         <v>83</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="35"/>
@@ -5250,7 +5217,7 @@
       <c r="R39" s="39"/>
       <c r="S39" s="37"/>
       <c r="T39" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5264,49 +5231,49 @@
         <v>92</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F40" s="34">
         <v>44993</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K40" s="36"/>
       <c r="L40" s="36" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M40" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N40" s="36" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="O40" s="36" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="P40" s="33" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="Q40" s="36"/>
       <c r="R40" s="39"/>
       <c r="S40" s="37" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="T40" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5320,10 +5287,10 @@
         <v>44</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="35"/>
@@ -5340,7 +5307,7 @@
       <c r="R41" s="39"/>
       <c r="S41" s="37"/>
       <c r="T41" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5354,10 +5321,10 @@
         <v>56</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="35"/>
@@ -5374,7 +5341,7 @@
       <c r="R42" s="39"/>
       <c r="S42" s="37"/>
       <c r="T42" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5388,10 +5355,10 @@
         <v>65</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="35"/>
@@ -5408,7 +5375,7 @@
       <c r="R43" s="39"/>
       <c r="S43" s="37"/>
       <c r="T43" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5422,10 +5389,10 @@
         <v>74</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="35"/>
@@ -5442,7 +5409,7 @@
       <c r="R44" s="39"/>
       <c r="S44" s="37"/>
       <c r="T44" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5456,10 +5423,10 @@
         <v>83</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="35"/>
@@ -5476,7 +5443,7 @@
       <c r="R45" s="39"/>
       <c r="S45" s="37"/>
       <c r="T45" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5490,49 +5457,49 @@
         <v>92</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F46" s="34">
         <v>44993</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="H46" s="53" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K46" s="36"/>
       <c r="L46" s="36" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M46" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N46" s="36" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="O46" s="36" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="P46" s="36" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="Q46" s="36"/>
       <c r="R46" s="39"/>
       <c r="S46" s="37" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="T46" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="43.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5546,10 +5513,10 @@
         <v>44</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="35"/>
@@ -5564,11 +5531,11 @@
       <c r="P47" s="36"/>
       <c r="Q47" s="36"/>
       <c r="R47" s="39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S47" s="37"/>
       <c r="T47" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="43.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5582,10 +5549,10 @@
         <v>56</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="35"/>
@@ -5600,11 +5567,11 @@
       <c r="P48" s="36"/>
       <c r="Q48" s="36"/>
       <c r="R48" s="39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S48" s="37"/>
       <c r="T48" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="43.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5618,10 +5585,10 @@
         <v>65</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
@@ -5636,11 +5603,11 @@
       <c r="P49" s="36"/>
       <c r="Q49" s="36"/>
       <c r="R49" s="39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S49" s="37"/>
       <c r="T49" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="43.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5654,10 +5621,10 @@
         <v>74</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="35"/>
@@ -5672,11 +5639,11 @@
       <c r="P50" s="36"/>
       <c r="Q50" s="36"/>
       <c r="R50" s="39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S50" s="37"/>
       <c r="T50" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="43.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5690,10 +5657,10 @@
         <v>83</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="35"/>
@@ -5708,11 +5675,11 @@
       <c r="P51" s="36"/>
       <c r="Q51" s="36"/>
       <c r="R51" s="39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S51" s="37"/>
       <c r="T51" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5726,17 +5693,17 @@
         <v>92</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
       <c r="J52" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
@@ -5744,15 +5711,15 @@
       <c r="N52" s="36"/>
       <c r="O52" s="36"/>
       <c r="P52" s="36" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="Q52" s="36"/>
       <c r="R52" s="39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S52" s="37"/>
       <c r="T52" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5766,10 +5733,10 @@
         <v>44</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="35"/>
@@ -5786,7 +5753,7 @@
       <c r="R53" s="39"/>
       <c r="S53" s="37"/>
       <c r="T53" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5800,10 +5767,10 @@
         <v>44</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="35"/>
@@ -5820,7 +5787,7 @@
       <c r="R54" s="39"/>
       <c r="S54" s="37"/>
       <c r="T54" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5834,10 +5801,10 @@
         <v>44</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="35"/>
@@ -5854,7 +5821,7 @@
       <c r="R55" s="39"/>
       <c r="S55" s="37"/>
       <c r="T55" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5868,10 +5835,10 @@
         <v>44</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="35"/>
@@ -5888,7 +5855,7 @@
       <c r="R56" s="39"/>
       <c r="S56" s="37"/>
       <c r="T56" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5902,10 +5869,10 @@
         <v>44</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="35"/>
@@ -5922,7 +5889,7 @@
       <c r="R57" s="39"/>
       <c r="S57" s="37"/>
       <c r="T57" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5936,10 +5903,10 @@
         <v>44</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="35"/>
@@ -5956,7 +5923,7 @@
       <c r="R58" s="39"/>
       <c r="S58" s="37"/>
       <c r="T58" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5970,10 +5937,10 @@
         <v>44</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="35"/>
@@ -5990,7 +5957,7 @@
       <c r="R59" s="39"/>
       <c r="S59" s="37"/>
       <c r="T59" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6004,10 +5971,10 @@
         <v>44</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="35"/>
@@ -6024,7 +5991,7 @@
       <c r="R60" s="39"/>
       <c r="S60" s="37"/>
       <c r="T60" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6038,10 +6005,10 @@
         <v>44</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F61" s="34"/>
       <c r="G61" s="35"/>
@@ -6058,7 +6025,7 @@
       <c r="R61" s="39"/>
       <c r="S61" s="37"/>
       <c r="T61" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6072,10 +6039,10 @@
         <v>44</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="35"/>
@@ -6092,7 +6059,7 @@
       <c r="R62" s="39"/>
       <c r="S62" s="37"/>
       <c r="T62" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6106,10 +6073,10 @@
         <v>44</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="35"/>
@@ -6126,7 +6093,7 @@
       <c r="R63" s="39"/>
       <c r="S63" s="37"/>
       <c r="T63" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6140,10 +6107,10 @@
         <v>56</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -6160,7 +6127,7 @@
       <c r="R64" s="39"/>
       <c r="S64" s="37"/>
       <c r="T64" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6174,10 +6141,10 @@
         <v>56</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="35"/>
@@ -6194,7 +6161,7 @@
       <c r="R65" s="39"/>
       <c r="S65" s="37"/>
       <c r="T65" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6208,10 +6175,10 @@
         <v>56</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="35"/>
@@ -6228,7 +6195,7 @@
       <c r="R66" s="39"/>
       <c r="S66" s="37"/>
       <c r="T66" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6242,10 +6209,10 @@
         <v>56</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="35"/>
@@ -6262,7 +6229,7 @@
       <c r="R67" s="39"/>
       <c r="S67" s="37"/>
       <c r="T67" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6276,10 +6243,10 @@
         <v>56</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="35"/>
@@ -6296,7 +6263,7 @@
       <c r="R68" s="39"/>
       <c r="S68" s="37"/>
       <c r="T68" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6310,10 +6277,10 @@
         <v>56</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="35"/>
@@ -6330,7 +6297,7 @@
       <c r="R69" s="39"/>
       <c r="S69" s="37"/>
       <c r="T69" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6344,10 +6311,10 @@
         <v>56</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="35"/>
@@ -6364,7 +6331,7 @@
       <c r="R70" s="39"/>
       <c r="S70" s="37"/>
       <c r="T70" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6378,10 +6345,10 @@
         <v>56</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="35"/>
@@ -6398,7 +6365,7 @@
       <c r="R71" s="39"/>
       <c r="S71" s="37"/>
       <c r="T71" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6412,10 +6379,10 @@
         <v>56</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="35"/>
@@ -6432,7 +6399,7 @@
       <c r="R72" s="39"/>
       <c r="S72" s="37"/>
       <c r="T72" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6446,10 +6413,10 @@
         <v>56</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="35"/>
@@ -6466,7 +6433,7 @@
       <c r="R73" s="39"/>
       <c r="S73" s="37"/>
       <c r="T73" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6480,10 +6447,10 @@
         <v>56</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="35"/>
@@ -6500,7 +6467,7 @@
       <c r="R74" s="39"/>
       <c r="S74" s="37"/>
       <c r="T74" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6514,10 +6481,10 @@
         <v>56</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="35"/>
@@ -6534,7 +6501,7 @@
       <c r="R75" s="39"/>
       <c r="S75" s="37"/>
       <c r="T75" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6548,10 +6515,10 @@
         <v>65</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="35"/>
@@ -6568,7 +6535,7 @@
       <c r="R76" s="39"/>
       <c r="S76" s="37"/>
       <c r="T76" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6582,10 +6549,10 @@
         <v>65</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="35"/>
@@ -6602,7 +6569,7 @@
       <c r="R77" s="39"/>
       <c r="S77" s="37"/>
       <c r="T77" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6616,10 +6583,10 @@
         <v>65</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="35"/>
@@ -6636,7 +6603,7 @@
       <c r="R78" s="39"/>
       <c r="S78" s="37"/>
       <c r="T78" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6650,10 +6617,10 @@
         <v>65</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="35"/>
@@ -6670,7 +6637,7 @@
       <c r="R79" s="39"/>
       <c r="S79" s="37"/>
       <c r="T79" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6684,10 +6651,10 @@
         <v>65</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="35"/>
@@ -6704,7 +6671,7 @@
       <c r="R80" s="39"/>
       <c r="S80" s="37"/>
       <c r="T80" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6718,10 +6685,10 @@
         <v>65</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="35"/>
@@ -6738,7 +6705,7 @@
       <c r="R81" s="39"/>
       <c r="S81" s="37"/>
       <c r="T81" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6752,10 +6719,10 @@
         <v>65</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="35"/>
@@ -6772,7 +6739,7 @@
       <c r="R82" s="39"/>
       <c r="S82" s="37"/>
       <c r="T82" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6786,10 +6753,10 @@
         <v>65</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="35"/>
@@ -6806,7 +6773,7 @@
       <c r="R83" s="39"/>
       <c r="S83" s="37"/>
       <c r="T83" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6820,10 +6787,10 @@
         <v>65</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="35"/>
@@ -6840,7 +6807,7 @@
       <c r="R84" s="39"/>
       <c r="S84" s="37"/>
       <c r="T84" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6854,10 +6821,10 @@
         <v>65</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="35"/>
@@ -6874,7 +6841,7 @@
       <c r="R85" s="39"/>
       <c r="S85" s="37"/>
       <c r="T85" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6888,10 +6855,10 @@
         <v>65</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="35"/>
@@ -6908,7 +6875,7 @@
       <c r="R86" s="39"/>
       <c r="S86" s="37"/>
       <c r="T86" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6922,10 +6889,10 @@
         <v>65</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="35"/>
@@ -6942,7 +6909,7 @@
       <c r="R87" s="39"/>
       <c r="S87" s="37"/>
       <c r="T87" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6956,10 +6923,10 @@
         <v>65</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="35"/>
@@ -6976,7 +6943,7 @@
       <c r="R88" s="39"/>
       <c r="S88" s="37"/>
       <c r="T88" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6990,10 +6957,10 @@
         <v>65</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F89" s="34"/>
       <c r="G89" s="35"/>
@@ -7010,7 +6977,7 @@
       <c r="R89" s="39"/>
       <c r="S89" s="37"/>
       <c r="T89" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7024,10 +6991,10 @@
         <v>65</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="35"/>
@@ -7044,7 +7011,7 @@
       <c r="R90" s="39"/>
       <c r="S90" s="37"/>
       <c r="T90" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7058,10 +7025,10 @@
         <v>65</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="35"/>
@@ -7078,7 +7045,7 @@
       <c r="R91" s="39"/>
       <c r="S91" s="37"/>
       <c r="T91" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7092,10 +7059,10 @@
         <v>65</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="35"/>
@@ -7112,7 +7079,7 @@
       <c r="R92" s="39"/>
       <c r="S92" s="37"/>
       <c r="T92" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7126,10 +7093,10 @@
         <v>65</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F93" s="34"/>
       <c r="G93" s="35"/>
@@ -7146,7 +7113,7 @@
       <c r="R93" s="39"/>
       <c r="S93" s="37"/>
       <c r="T93" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7160,10 +7127,10 @@
         <v>65</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F94" s="34"/>
       <c r="G94" s="35"/>
@@ -7180,7 +7147,7 @@
       <c r="R94" s="39"/>
       <c r="S94" s="37"/>
       <c r="T94" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7194,10 +7161,10 @@
         <v>74</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="35"/>
@@ -7214,7 +7181,7 @@
       <c r="R95" s="39"/>
       <c r="S95" s="37"/>
       <c r="T95" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7228,10 +7195,10 @@
         <v>74</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F96" s="34"/>
       <c r="G96" s="35"/>
@@ -7248,7 +7215,7 @@
       <c r="R96" s="39"/>
       <c r="S96" s="37"/>
       <c r="T96" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7262,10 +7229,10 @@
         <v>74</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F97" s="34"/>
       <c r="G97" s="35"/>
@@ -7282,7 +7249,7 @@
       <c r="R97" s="39"/>
       <c r="S97" s="37"/>
       <c r="T97" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7296,10 +7263,10 @@
         <v>74</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F98" s="34"/>
       <c r="G98" s="35"/>
@@ -7316,7 +7283,7 @@
       <c r="R98" s="39"/>
       <c r="S98" s="37"/>
       <c r="T98" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7330,10 +7297,10 @@
         <v>74</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="35"/>
@@ -7350,7 +7317,7 @@
       <c r="R99" s="39"/>
       <c r="S99" s="37"/>
       <c r="T99" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7364,10 +7331,10 @@
         <v>74</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F100" s="34"/>
       <c r="G100" s="35"/>
@@ -7384,7 +7351,7 @@
       <c r="R100" s="39"/>
       <c r="S100" s="37"/>
       <c r="T100" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7398,10 +7365,10 @@
         <v>74</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F101" s="34"/>
       <c r="G101" s="35"/>
@@ -7418,7 +7385,7 @@
       <c r="R101" s="39"/>
       <c r="S101" s="37"/>
       <c r="T101" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7432,10 +7399,10 @@
         <v>74</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="35"/>
@@ -7452,7 +7419,7 @@
       <c r="R102" s="39"/>
       <c r="S102" s="37"/>
       <c r="T102" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7466,10 +7433,10 @@
         <v>74</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="35"/>
@@ -7486,7 +7453,7 @@
       <c r="R103" s="39"/>
       <c r="S103" s="37"/>
       <c r="T103" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7500,10 +7467,10 @@
         <v>74</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E104" s="33" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="35"/>
@@ -7520,7 +7487,7 @@
       <c r="R104" s="39"/>
       <c r="S104" s="37"/>
       <c r="T104" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7534,10 +7501,10 @@
         <v>74</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E105" s="33" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="35"/>
@@ -7554,7 +7521,7 @@
       <c r="R105" s="39"/>
       <c r="S105" s="37"/>
       <c r="T105" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7568,10 +7535,10 @@
         <v>74</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="35"/>
@@ -7588,7 +7555,7 @@
       <c r="R106" s="39"/>
       <c r="S106" s="37"/>
       <c r="T106" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7602,10 +7569,10 @@
         <v>74</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="35"/>
@@ -7622,7 +7589,7 @@
       <c r="R107" s="39"/>
       <c r="S107" s="37"/>
       <c r="T107" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7636,10 +7603,10 @@
         <v>83</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="35"/>
@@ -7656,7 +7623,7 @@
       <c r="R108" s="39"/>
       <c r="S108" s="37"/>
       <c r="T108" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7670,10 +7637,10 @@
         <v>83</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="35"/>
@@ -7690,7 +7657,7 @@
       <c r="R109" s="39"/>
       <c r="S109" s="37"/>
       <c r="T109" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7704,10 +7671,10 @@
         <v>83</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="35"/>
@@ -7724,7 +7691,7 @@
       <c r="R110" s="39"/>
       <c r="S110" s="37"/>
       <c r="T110" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7738,10 +7705,10 @@
         <v>83</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="35"/>
@@ -7758,7 +7725,7 @@
       <c r="R111" s="39"/>
       <c r="S111" s="37"/>
       <c r="T111" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7772,10 +7739,10 @@
         <v>83</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="35"/>
@@ -7792,7 +7759,7 @@
       <c r="R112" s="39"/>
       <c r="S112" s="37"/>
       <c r="T112" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7806,10 +7773,10 @@
         <v>83</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="35"/>
@@ -7826,7 +7793,7 @@
       <c r="R113" s="39"/>
       <c r="S113" s="37"/>
       <c r="T113" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7840,10 +7807,10 @@
         <v>83</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E114" s="33" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="35"/>
@@ -7860,7 +7827,7 @@
       <c r="R114" s="39"/>
       <c r="S114" s="37"/>
       <c r="T114" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7874,10 +7841,10 @@
         <v>83</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="35"/>
@@ -7894,7 +7861,7 @@
       <c r="R115" s="39"/>
       <c r="S115" s="37"/>
       <c r="T115" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7908,10 +7875,10 @@
         <v>83</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="35"/>
@@ -7928,7 +7895,7 @@
       <c r="R116" s="39"/>
       <c r="S116" s="37"/>
       <c r="T116" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7942,10 +7909,10 @@
         <v>83</v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E117" s="33" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="35"/>
@@ -7962,7 +7929,7 @@
       <c r="R117" s="39"/>
       <c r="S117" s="37"/>
       <c r="T117" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7976,10 +7943,10 @@
         <v>83</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E118" s="33" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="35"/>
@@ -7996,7 +7963,7 @@
       <c r="R118" s="39"/>
       <c r="S118" s="37"/>
       <c r="T118" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8010,10 +7977,10 @@
         <v>83</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="35"/>
@@ -8030,7 +7997,7 @@
       <c r="R119" s="39"/>
       <c r="S119" s="37"/>
       <c r="T119" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8044,10 +8011,10 @@
         <v>83</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="35"/>
@@ -8064,7 +8031,7 @@
       <c r="R120" s="39"/>
       <c r="S120" s="37"/>
       <c r="T120" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8078,10 +8045,10 @@
         <v>83</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E121" s="33" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="35"/>
@@ -8098,7 +8065,7 @@
       <c r="R121" s="39"/>
       <c r="S121" s="37"/>
       <c r="T121" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8112,10 +8079,10 @@
         <v>83</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="35"/>
@@ -8132,7 +8099,7 @@
       <c r="R122" s="39"/>
       <c r="S122" s="37"/>
       <c r="T122" s="40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
@@ -8146,49 +8113,49 @@
         <v>92</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F123" s="42">
         <v>44956.655914351853</v>
       </c>
       <c r="G123" s="43" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="H123" s="43" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="I123" s="43" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="J123" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K123" s="44"/>
       <c r="L123" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M123" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N123" s="44" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="O123" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P123" s="47" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="Q123" s="44"/>
       <c r="R123" s="39"/>
       <c r="S123" s="45" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="T123" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8202,20 +8169,20 @@
         <v>92</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F124" s="42"/>
       <c r="G124" s="43"/>
       <c r="H124" s="43"/>
       <c r="I124" s="43"/>
       <c r="J124" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K124" s="48" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="L124" s="44"/>
       <c r="M124" s="44"/>
@@ -8226,7 +8193,7 @@
       <c r="R124" s="39"/>
       <c r="S124" s="48"/>
       <c r="T124" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8240,20 +8207,20 @@
         <v>92</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F125" s="42"/>
       <c r="G125" s="43"/>
       <c r="H125" s="43"/>
       <c r="I125" s="43"/>
       <c r="J125" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K125" s="48" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="L125" s="44"/>
       <c r="M125" s="44"/>
@@ -8264,7 +8231,7 @@
       <c r="R125" s="39"/>
       <c r="S125" s="48"/>
       <c r="T125" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -8278,20 +8245,20 @@
         <v>92</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F126" s="42"/>
       <c r="G126" s="43"/>
       <c r="H126" s="43"/>
       <c r="I126" s="43"/>
       <c r="J126" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K126" s="48" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L126" s="44"/>
       <c r="M126" s="44"/>
@@ -8302,7 +8269,7 @@
       <c r="R126" s="39"/>
       <c r="S126" s="48"/>
       <c r="T126" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8316,20 +8283,20 @@
         <v>92</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F127" s="42"/>
       <c r="G127" s="43"/>
       <c r="H127" s="43"/>
       <c r="I127" s="43"/>
       <c r="J127" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K127" s="48" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="L127" s="44"/>
       <c r="M127" s="44"/>
@@ -8340,7 +8307,7 @@
       <c r="R127" s="39"/>
       <c r="S127" s="48"/>
       <c r="T127" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -8354,49 +8321,49 @@
         <v>92</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F128" s="42">
         <v>44956.668854166666</v>
       </c>
       <c r="G128" s="43" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="H128" s="43" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="I128" s="43" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="J128" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K128" s="45"/>
       <c r="L128" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M128" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N128" s="44" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="O128" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P128" s="47" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="Q128" s="44"/>
       <c r="R128" s="39"/>
       <c r="S128" s="45" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="T128" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8410,20 +8377,20 @@
         <v>92</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="F129" s="42"/>
       <c r="G129" s="43"/>
       <c r="H129" s="43"/>
       <c r="I129" s="43"/>
       <c r="J129" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K129" s="48" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="L129" s="44"/>
       <c r="M129" s="44"/>
@@ -8434,7 +8401,7 @@
       <c r="R129" s="39"/>
       <c r="S129" s="48"/>
       <c r="T129" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -8448,20 +8415,20 @@
         <v>92</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F130" s="42"/>
       <c r="G130" s="43"/>
       <c r="H130" s="43"/>
       <c r="I130" s="43"/>
       <c r="J130" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K130" s="48" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="L130" s="44"/>
       <c r="M130" s="44"/>
@@ -8472,7 +8439,7 @@
       <c r="R130" s="39"/>
       <c r="S130" s="48"/>
       <c r="T130" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8486,49 +8453,49 @@
         <v>92</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="F131" s="42">
         <v>44957.526666666665</v>
       </c>
       <c r="G131" s="43" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H131" s="43" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="I131" s="43" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="J131" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K131" s="45"/>
       <c r="L131" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M131" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N131" s="48" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="O131" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P131" s="47" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="Q131" s="44"/>
       <c r="R131" s="39"/>
       <c r="S131" s="45" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="T131" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8542,49 +8509,49 @@
         <v>92</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F132" s="42">
         <v>44957.549166666664</v>
       </c>
       <c r="G132" s="43" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="H132" s="43" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="I132" s="43" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="J132" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K132" s="45"/>
       <c r="L132" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M132" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N132" s="44" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="O132" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P132" s="47" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="Q132" s="44"/>
       <c r="R132" s="39"/>
       <c r="S132" s="45" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="T132" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="1:20" ht="375" thickBot="1" x14ac:dyDescent="0.35">
@@ -8598,49 +8565,49 @@
         <v>92</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F133" s="42">
         <v>44957.552129629628</v>
       </c>
       <c r="G133" s="43" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="H133" s="43" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I133" s="43" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="J133" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K133" s="45"/>
       <c r="L133" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M133" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N133" s="44" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="O133" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P133" s="47" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="Q133" s="44"/>
       <c r="R133" s="39"/>
       <c r="S133" s="45" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="T133" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8654,49 +8621,49 @@
         <v>92</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="F134" s="42">
         <v>44957.592812499999</v>
       </c>
       <c r="G134" s="43" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="H134" s="43" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="I134" s="43" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="J134" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K134" s="45"/>
       <c r="L134" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M134" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N134" s="44" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O134" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P134" s="47" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="Q134" s="44"/>
       <c r="R134" s="39"/>
       <c r="S134" s="45" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="T134" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8710,20 +8677,20 @@
         <v>92</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F135" s="42"/>
       <c r="G135" s="43"/>
       <c r="H135" s="43"/>
       <c r="I135" s="43"/>
       <c r="J135" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K135" s="45" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="L135" s="44"/>
       <c r="M135" s="44"/>
@@ -8734,7 +8701,7 @@
       <c r="R135" s="39"/>
       <c r="S135" s="45"/>
       <c r="T135" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8748,20 +8715,20 @@
         <v>92</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="F136" s="42"/>
       <c r="G136" s="43"/>
       <c r="H136" s="43"/>
       <c r="I136" s="43"/>
       <c r="J136" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K136" s="45" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="L136" s="44"/>
       <c r="M136" s="44"/>
@@ -8772,7 +8739,7 @@
       <c r="R136" s="39"/>
       <c r="S136" s="45"/>
       <c r="T136" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8786,20 +8753,20 @@
         <v>92</v>
       </c>
       <c r="D137" s="32" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="F137" s="42"/>
       <c r="G137" s="43"/>
       <c r="H137" s="43"/>
       <c r="I137" s="43"/>
       <c r="J137" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K137" s="48" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L137" s="44"/>
       <c r="M137" s="44"/>
@@ -8810,7 +8777,7 @@
       <c r="R137" s="39"/>
       <c r="S137" s="48"/>
       <c r="T137" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -8824,20 +8791,20 @@
         <v>92</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="F138" s="42"/>
       <c r="G138" s="43"/>
       <c r="H138" s="43"/>
       <c r="I138" s="43"/>
       <c r="J138" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K138" s="48" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="L138" s="44"/>
       <c r="M138" s="44"/>
@@ -8848,7 +8815,7 @@
       <c r="R138" s="39"/>
       <c r="S138" s="48"/>
       <c r="T138" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8862,20 +8829,20 @@
         <v>92</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="F139" s="42"/>
       <c r="G139" s="43"/>
       <c r="H139" s="43"/>
       <c r="I139" s="43"/>
       <c r="J139" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K139" s="45" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="L139" s="44"/>
       <c r="M139" s="44"/>
@@ -8886,7 +8853,7 @@
       <c r="R139" s="39"/>
       <c r="S139" s="45"/>
       <c r="T139" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:20" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8900,49 +8867,49 @@
         <v>92</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="F140" s="42">
         <v>44957.610127314816</v>
       </c>
       <c r="G140" s="43" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="H140" s="43" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="I140" s="43" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="J140" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K140" s="45"/>
       <c r="L140" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M140" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N140" s="44" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="O140" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P140" s="47" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="Q140" s="44"/>
       <c r="R140" s="39"/>
       <c r="S140" s="45" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="T140" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141" spans="1:20" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
@@ -8956,49 +8923,49 @@
         <v>92</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="F141" s="42">
         <v>44957.615231481483</v>
       </c>
       <c r="G141" s="43" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="H141" s="43" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I141" s="43" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="J141" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K141" s="45"/>
       <c r="L141" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M141" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N141" s="44" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="O141" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P141" s="47" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="Q141" s="44"/>
       <c r="R141" s="39"/>
       <c r="S141" s="45" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="T141" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -9012,20 +8979,20 @@
         <v>92</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F142" s="42"/>
       <c r="G142" s="43"/>
       <c r="H142" s="43"/>
       <c r="I142" s="43"/>
       <c r="J142" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K142" s="45" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L142" s="44"/>
       <c r="M142" s="44"/>
@@ -9036,7 +9003,7 @@
       <c r="R142" s="39"/>
       <c r="S142" s="45"/>
       <c r="T142" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:20" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9050,49 +9017,49 @@
         <v>92</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F143" s="42">
         <v>44956.676689814813</v>
       </c>
       <c r="G143" s="43" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="H143" s="43" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="I143" s="43" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="J143" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K143" s="48"/>
       <c r="L143" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M143" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N143" s="44" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="O143" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P143" s="47" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="Q143" s="44"/>
       <c r="R143" s="39"/>
       <c r="S143" s="45" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="T143" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9106,49 +9073,49 @@
         <v>92</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="F144" s="42">
         <v>44956.68173611111</v>
       </c>
       <c r="G144" s="43" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="H144" s="43" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="I144" s="43" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="J144" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K144" s="45"/>
       <c r="L144" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M144" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N144" s="44" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="O144" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P144" s="47" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="Q144" s="44"/>
       <c r="R144" s="39"/>
       <c r="S144" s="45" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="T144" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:20" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9162,49 +9129,49 @@
         <v>92</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="F145" s="42">
         <v>44956.689270833333</v>
       </c>
       <c r="G145" s="43" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="H145" s="43" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="I145" s="43" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="J145" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K145" s="45"/>
       <c r="L145" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M145" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N145" s="44" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="O145" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P145" s="47" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="Q145" s="44"/>
       <c r="R145" s="39"/>
       <c r="S145" s="45" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="T145" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -9218,20 +9185,20 @@
         <v>92</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="F146" s="42"/>
       <c r="G146" s="43"/>
       <c r="H146" s="43"/>
       <c r="I146" s="43"/>
       <c r="J146" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K146" s="49" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L146" s="44"/>
       <c r="M146" s="44"/>
@@ -9242,7 +9209,7 @@
       <c r="R146" s="39"/>
       <c r="S146" s="49"/>
       <c r="T146" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
@@ -9256,20 +9223,20 @@
         <v>92</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="F147" s="42"/>
       <c r="G147" s="43"/>
       <c r="H147" s="43"/>
       <c r="I147" s="43"/>
       <c r="J147" s="44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K147" s="50" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L147" s="44"/>
       <c r="M147" s="44"/>
@@ -9280,7 +9247,7 @@
       <c r="R147" s="39"/>
       <c r="S147" s="50"/>
       <c r="T147" s="46" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
@@ -23718,10 +23685,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23729,13 +23696,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23743,13 +23710,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23757,13 +23724,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23771,13 +23738,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23785,13 +23752,13 @@
         <v>83</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23799,13 +23766,13 @@
         <v>92</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24828,18 +24795,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25853,6 +25820,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004DE490683678E84AABC70C83AF04A849" ma:contentTypeVersion="5" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="d87ba405330fe1fd4ebca86e6510eeed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b66a4e9-493a-4f5b-bd90-2639920d41ca" xmlns:ns3="581feeb0-3f31-43f8-b205-816acbb15e2f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a33c0baab722015f1fb37e23302defe" ns2:_="" ns3:_="">
     <xsd:import namespace="6b66a4e9-493a-4f5b-bd90-2639920d41ca"/>
@@ -26023,22 +26005,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD964D2-2703-4697-A7AA-1232AB3EB4A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26057,25 +26043,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Ellipse_PS/2.7.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Ellipse_PS/2.7.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit-my.sharepoint.com/personal/cristiano_avella_eng_it/Documents/Documenti/GitHub/it-fse-accreditamento/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Ellipse_PS/2.7.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{5C1BE210-EF7F-4D01-8879-4722001918C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{757EA181-9D65-4FE1-8CAF-769AC19D4A20}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{5C1BE210-EF7F-4D01-8879-4722001918C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F907C07-E38E-41A6-8C81-2B27B964F047}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -1705,40 +1705,40 @@
     <t>2023-03-08T14:33:56Z</t>
   </si>
   <si>
-    <t>debab80fbaba5990</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.1.554bc96737cb087a135c9b0770580e1440c992adea27f8cffaf148bb208b11cb.8d4d4878d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-23T17:50:38Z</t>
-  </si>
-  <si>
-    <t>ebe5c6e770293625</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.1.0bd90d34f14c0eccff8f33c33ae223db4edf4644f0917873e751aae1854b2e18.64d443f5ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-23T17:58:25Z</t>
-  </si>
-  <si>
-    <t>869269a591fea43b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.1.822a6be25dec3144fe15048ced700c2ee3c2b87fdd9387fd4dcaffe71818f811.480a0ee8d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-24T12:48:55Z</t>
-  </si>
-  <si>
-    <t>4d4d0d5929d4a7f3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.1.41f0ccb2b77166e5edbb1c49bddcdb15e018a0a6490c6dbcbfd9295c9970b44e.bda781f0f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-24T15:53:57Z</t>
+    <t>569d6d66fc64555c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.1.5dc64e2b66d2b69ca5c389e2212c9c02c408118afe923dce627055bb2cd4d610.9760adab63^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-30T11:10:37Z</t>
+  </si>
+  <si>
+    <t>aa60e396356b12cd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.1.a60ce5e28ac814f041150b320c6a9342dc95d808d5a54e4b5db715de0ae8a347.c7eba00609^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-30T11:35:57Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.1.cd6dd70ef2ba31a9918398c0da847da1babf052bbfe6e6465210a3066084804b.740b436dd5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0a62db91925748e9</t>
+  </si>
+  <si>
+    <t>2023-03-30T11:44:51Z</t>
+  </si>
+  <si>
+    <t>3be613f4f40af162</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.1.fa2c9515f28a87f97dac344e5b9f3cd5f35b65c5a4d411fa5c8d9bf3bd493cf8.8f81cfb81e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-30T13:17:19Z</t>
   </si>
 </sst>
 </file>
@@ -3898,10 +3898,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4891,7 +4891,7 @@
         <v>94</v>
       </c>
       <c r="F31" s="42">
-        <v>45008.743495370371</v>
+        <v>45015.46570601852</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>412</v>
@@ -4935,7 +4935,7 @@
         <v>97</v>
       </c>
       <c r="F32" s="42">
-        <v>45008.748900462961</v>
+        <v>45015.483298611114</v>
       </c>
       <c r="G32" s="43" t="s">
         <v>415</v>
@@ -4979,16 +4979,16 @@
         <v>99</v>
       </c>
       <c r="F33" s="42">
-        <v>45009.53396990741</v>
+        <v>45015.489479166667</v>
       </c>
       <c r="G33" s="43" t="s">
         <v>418</v>
       </c>
       <c r="H33" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="I33" s="43" t="s">
         <v>416</v>
-      </c>
-      <c r="I33" s="43" t="s">
-        <v>417</v>
       </c>
       <c r="J33" s="44" t="s">
         <v>95</v>
@@ -5023,7 +5023,7 @@
         <v>101</v>
       </c>
       <c r="F34" s="42">
-        <v>45009.662465277775</v>
+        <v>45015.55369212963</v>
       </c>
       <c r="G34" s="43" t="s">
         <v>421</v>
@@ -5682,7 +5682,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31">
         <v>51</v>
       </c>
@@ -25820,21 +25820,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004DE490683678E84AABC70C83AF04A849" ma:contentTypeVersion="5" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="d87ba405330fe1fd4ebca86e6510eeed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b66a4e9-493a-4f5b-bd90-2639920d41ca" xmlns:ns3="581feeb0-3f31-43f8-b205-816acbb15e2f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a33c0baab722015f1fb37e23302defe" ns2:_="" ns3:_="">
     <xsd:import namespace="6b66a4e9-493a-4f5b-bd90-2639920d41ca"/>
@@ -26005,26 +25990,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD964D2-2703-4697-A7AA-1232AB3EB4A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26043,6 +26024,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
